--- a/DB設計書_エンティティ一覧E-R図.xlsx
+++ b/DB設計書_エンティティ一覧E-R図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c07f1f1907b76f66/ドキュメント/2023/GitHub/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{0155D468-9795-4F8B-96FD-1494D8EAEE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E95F1EAE-ECF1-4EBC-8BBD-F51A2BE8A952}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{0155D468-9795-4F8B-96FD-1494D8EAEE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94254F1B-E53B-4D8C-B08A-6BC361788FB2}"/>
   <bookViews>
     <workbookView xWindow="7220" yWindow="2110" windowWidth="9780" windowHeight="9170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,13 +177,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>kシステムにおけるデータモデルを示す</t>
-    <rPh sb="16" eb="17">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>マスター</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -238,6 +231,16 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ナオト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お土産システムにおけるデータモデルを示す</t>
+    <rPh sb="1" eb="3">
+      <t>ミヤゲ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シメ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -602,32 +605,32 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -879,10 +882,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1177,8 +1176,8 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" x14ac:dyDescent="0.2"/>
@@ -1193,14 +1192,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -1208,14 +1207,14 @@
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1231,7 +1230,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="23">
-        <v>45300</v>
+        <v>45301</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1240,7 +1239,7 @@
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17" t="s">
@@ -1270,7 +1269,7 @@
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="s">
@@ -1309,84 +1308,84 @@
       <c r="D9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24">
         <v>1</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="34"/>
+        <v>21</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
@@ -1608,6 +1607,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -1618,11 +1622,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1637,6 +1636,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="f87b90b8-3799-4f6b-b8f5-f4011f5d303d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010057786030B183FF46A6A3A32A802AE605" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ed896d2fd23f8e3802b904b0fb0347aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f87b90b8-3799-4f6b-b8f5-f4011f5d303d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9eb182593051a7fd459fde2ee2e6bf8b" ns2:_="">
     <xsd:import namespace="f87b90b8-3799-4f6b-b8f5-f4011f5d303d"/>
@@ -1780,24 +1796,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015ABCEC-86AC-4514-ADE2-324BCB123D68}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f87b90b8-3799-4f6b-b8f5-f4011f5d303d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="f87b90b8-3799-4f6b-b8f5-f4011f5d303d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{484C079A-BA70-4A41-8707-95A79F249F61}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1813,28 +1836,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015ABCEC-86AC-4514-ADE2-324BCB123D68}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="f87b90b8-3799-4f6b-b8f5-f4011f5d303d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>